--- a/data/n2v/tables/model-1200-1325-20230828-13.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230828-13.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
